--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>20 41 31 33 21 23 24 18 38 27 39</t>
   </si>
   <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14</t>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -677,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -701,10 +701,10 @@
         <v>134</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
         <v>8</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>14</v>
       </c>
       <c r="I3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="M3">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>353</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>124</v>
       </c>
       <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
         <v>8</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>7</v>
       </c>
       <c r="Q2">
         <v>373</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1005,28 +1005,28 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="M3">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>298</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L2">
         <v>79</v>
@@ -1251,10 +1251,10 @@
         <v>63</v>
       </c>
       <c r="N2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 63 63 73 74 62 64 62 68 67 68</t>
-  </si>
-  <si>
-    <t>20 41 31 33 21 23 24 18 38 27 39</t>
-  </si>
-  <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12</t>
+    <t>65 63 63 73 74 62 64 62 68 67 68 66 66</t>
+  </si>
+  <si>
+    <t>20 41 31 33 21 23 24 18 38 27 39 28 20</t>
+  </si>
+  <si>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -677,19 +677,19 @@
         <v>2</v>
       </c>
       <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
         <v>43</v>
       </c>
-      <c r="G2">
-        <v>40</v>
-      </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>134</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>18</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="M3">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>420</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -952,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>124</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>373</v>
@@ -996,37 +996,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="M3">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>370</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L2">
         <v>79</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 63 63 73 74 62 64 62 68 67 68 66 66</t>
-  </si>
-  <si>
-    <t>20 41 31 33 21 23 24 18 38 27 39 28 20</t>
-  </si>
-  <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0</t>
+    <t>65 63 63 73 74 62 64 62 68 67 68 66 66 56</t>
+  </si>
+  <si>
+    <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15</t>
+  </si>
+  <si>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>134</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O2">
         <v>18</v>
@@ -721,37 +721,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M3">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="N3">
         <v>9</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>498</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -952,19 +952,19 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>36</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>124</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
         <v>373</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>93</v>
+      </c>
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="F3">
-        <v>86</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
       <c r="H3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="M3">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>435</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -1215,19 +1215,19 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G2">
         <v>328</v>
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2">
         <v>68</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,13 +1365,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 63 63 73 74 62 64 62 68 67 68 66 66 56</t>
-  </si>
-  <si>
-    <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15</t>
-  </si>
-  <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0</t>
+    <t>65 63 63 73 74 62 64 62 68 67 68 66 66 56 63</t>
+  </si>
+  <si>
+    <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15 0</t>
+  </si>
+  <si>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29 20</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42 47 54 62 51</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0 7 7 0 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0 21 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,40 +677,40 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="M2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>380</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>232</v>
       </c>
       <c r="N3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,16 +943,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>36</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M2">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>373</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1005,19 +1005,19 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>177</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15 0</t>
   </si>
   <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29 20</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42 47 54 62 51</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0 7 7 0 0</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0 21 0 0 0 0 0</t>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29 20 20 18 20</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42 47 54 62 51 42 57 45 51</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0 7 7 0 0 0 -5 0 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0 21 0 0 0 0 0 0 17 -2</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="M2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>452</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>232</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="M2">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>432</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>177</v>
       </c>
       <c r="N3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>170</v>
@@ -1245,7 +1245,7 @@
         <v>161</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2">
         <v>64</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1368,10 +1368,10 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Cowboys/2021 Team Data.xlsx
+++ b/Base/Teams/Cowboys/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1</t>
-  </si>
-  <si>
-    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4</t>
-  </si>
-  <si>
-    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9</t>
-  </si>
-  <si>
-    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11</t>
+    <t>4 2 4 0 2 7 1 0 3 -1 13 3 0 2 4 1 4 11 1 10 1 1 3 5 -2 5 4 8 16 6 13 5 6 4 5 5 6 19 5 28 3 23 3 1 -1 5 4 3 3 5 9 1 4 4 8 11 7 5 -1 6 5 7 6 4 9 5 8 1 2 10 3 0 0 13 2 -1 5 4 8 3 1 5 4 1 5 -6 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 2 15 4 4 6 6 17 4 5 3 6 6 3 5 12 0 0 14 0 4 3 7 -2 5 3 14 0 10 2 2 7 4 13 2 2 2 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 8 2 6 2 3 5 4 2 7 2 5 2 2 2 6 2 4 2 2 4 2 1 2 1 4 5 8 1 7 11 7 2 3 -2 7 2 5 10 9 3 5 4 -3 4 2 -3 3 2 1 9 9 2 2 2 1 0 3 1 3 15 22 12 7 2 3 -1 2 5 31 3 1 5 1 5 2 8 3 5 4 4 4 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 0 3 2 1 2 33 2 1 3 4 -2 4 58 2 10 2 3 5 3 3 10 4 3 0 4 0 5 5 4 0 2 2 7 4 5 4 11 1 4 10 10 6 1 3 2 3 3 4 3 4 1 5 5 3 -1 7 8 4 13 17 2 3 2 0 2 3 10 7 9 12 2 5 0 0 2 1 -2 1 12 3 1 2 4 9 8 4 0 8 -2 0 13 0 11 4 9 3 -2 1 6 3 4 0 5 2 7 1 8 2 4 -1 2 0 -1 5 4 6 3 3 1 0 12 -1 4 1 -3 4 5 5 8 5 1 5 0 0 1 1 9 3 3 2 4 0 2 5 17</t>
+  </si>
+  <si>
+    <t>28 5 16 11 8 12 7 8 7 22 2 5 22 6 8 3 4 13 -5 4 11 7 10 5 16 6 14 6 4 3 7 10 9 6 21 2 3 6 11 9 31 10 6 7 6 20 7 17 12 10 13 5 16 10 34 4 13 -4 1 11 7 7 5 12 4 8 8 44 7 8 4 12 19 9 8 6 9 6 15 15 13 11 7 5 22 18 12 10 14 18 4 7 20 35 6 7 6 23 8 6 8 6 2 49 6 8 -2 11 21 7 15 24 11 30 15 4 8 14 18 22 35 7 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 5 8 17 8 20 29 4 9 3 7 73 10 2 35 1 13 15 7 19 33 18 1 7 -3 15 5 5 0 32 17 21 4 18 5 4 24 9 32 5 10 7 4 20 11 4 37 11 13 5 9 12 6 6 18 5 7 4 9 8 16 9 14 9 19 7 22 11 6 8 -3 11 11 2 2 8 11 3 1 5 4 5 16 4 0 6 12 18 14 -2 3 19 5 19 7 11 16 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 9 5 1 41 7 1 21 10 10 5 17 1 4 20 0 12 2 10 1 3 4 13 25 9 4 3 4 18 7 15 3 12 24 7 4 0 12 13 9 14 20 12 5 11 5 10 2 4 9 11 4 2 19 4 9 9 6 5 11 3 3 6 7 15 9 3 7 3 10 16 10 1 11 7 9 7 7 7 5 10 24 6 5 7 14 22 4 10 9 5 40 8 9 25 16 13 1 18 11 12 8 13 8 61 9 9 6 7 7 14 11 9 6 9 7 7 11 21 12 5 26 0 8 31 16 8 4 10 7 18 20 9 12 8 6 0 5 14 8 6 24 5 6 2 11 10 38 9 10 9</t>
+  </si>
+  <si>
+    <t>5 3 5 3 3 5 2 5 1 7 0 6 6 1 20 -1 16 1 3 1 5 1 0 5 1 9 5 3 9 3 7 4 -2 24 2 3 3 1 3 7 9 8 2 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 4 6 5 1 4 3 4 1 14 2 4 1 0 0 -1 4 0 2 4 -2 7 3 4 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 6 2 -1 15 0 2 3 2 0 0 13 19 4 3 -2 8 4 8 8 7 1 4 -4 -2 11 20 -3 7 13 1 -2 3 17 0 12 2 2 11 2 2 2 30 2 1 1 7 14 6 7 6 4 -4 2 0 1 10 3 2 0 2 1 -1 6 14 3 2 3 5 -3 4 1 -5 1 6 2 4 7 17 6 8 33 11 4 3 4 1 5 1 5 0 2 3 3 7 4 14 3 6 4 10 -2 -7 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 2 5 3 -1 3 2 9 9 3 -1 25 24 7 0 4 8 6 5 9 23 4 6 8 0 7 7 2 0 1 3 3 11 2 4 6 5 0 13 6 5 12 8 4 6 7 2 0 1 6 5 4 5 5 28 4 5 0 5 1 -3 0 6 6 3 5 1 3 2 0 6 3 15 15 4 1 0 8 3 10 3 0 4 1 0 4 4 2 3 24 14 1 2 1 2 2 1 -5 2 7 4 1 -3 2 7 12 5 0 1 2 2 1 1 15 3 11 6 9 9 1 13 4 4 9 5 -1 6 -2 0 1 5 2 2 -1 7 1 5 11 3 9 26 -1 16 1 13 5 1 5 5 3 0 5 1 2 3 9</t>
+  </si>
+  <si>
+    <t>10 19 28 16 8 5 27 5 19 17 2 10 47 20 2 2 11 10 1 5 7 9 7 9 7 3 11 8 4 6 20 24 22 11 7 0 5 14 -2 12 9 27 12 14 8 -1 6 10 7 8 42 8 -2 5 7 16 8 20 4 2 15 30 14 38 5 5 9 19 7 19 28 41 27 0 3 4 1 5 12 5 7 24 19 16 12 15 -4 9 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 38 5 9 18 28 6 35 6 2 26 5 13 13 16 14 13 13 11 7 13 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 31 3 20 3 5 7 -2 6 11 18 7 7 -4 -2 4 4 9 -3 6 13 6 3 -3 25 5 8 11 44 19 7 6 9 17 6 3 11 20 8 -3 16 40 17 18 17 14 0 8 13 21 9 1 10 8 12 0 8 37 13 23 7 11 8 24 14 22 10 12 6 6 4 8 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 6 12 -2 -6 25 27 9 24 9 1 9 30 6 1 5 13 13 70 14 5 12 2 3 19 9 43 -1 6 10 8 19 19 7 8 2 16 4 15 0 3 4 9 15 9 7 7 8 14 7 7 10 36 14 48 8 2 21 -4 32 15 -2 19 5 5 6 12 42 4 17 3 3 3 20 10 5 3 4 9 4 5 5 11 43 -7 6 19 16 7 12 7 11 17 11 15 11 11 10 9 19 10 37 5 13 -1 18 5 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>65 63 63 73 74 62 64 62 68 67 68 66 66 56 63</t>
-  </si>
-  <si>
-    <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15 0</t>
-  </si>
-  <si>
-    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29 20 20 18 20</t>
-  </si>
-  <si>
-    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42 47 54 62 51 42 57 45 51</t>
-  </si>
-  <si>
-    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0 7 7 0 0 0 -5 0 0</t>
-  </si>
-  <si>
-    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0 21 0 0 0 0 0 0 17 -2</t>
+    <t>65 63 63 73 74 62 64 62 68 67 68 66 66 56 63 55 60</t>
+  </si>
+  <si>
+    <t>20 41 31 33 21 23 24 18 38 27 39 28 20 15 0 16 13</t>
+  </si>
+  <si>
+    <t>24 23 24 14 25 22 27 22 54 35 29 21 18 18 0 11 22 21 15 21 29 20 20 18 20 18 32</t>
+  </si>
+  <si>
+    <t>38 47 62 44 56 49 40 57 51 40 36 63 61 51 50 54 36 41 55 55 46 38 51 60 52 46 47 34 48 53 60 55 53 44 58 56 59 60 59 59 54 31 37 37 43 31 59 35 50 50 32 36 50 42 47 54 62 51 42 57 45 51 57 59 46 48 58</t>
+  </si>
+  <si>
+    <t>0 24 7 6 -4 -3 0 5 0 0 0 0 7 23 0 7 0 0 0 0 1 0 5 4 0 0 0 0 0 9 21 0 0 0 0 9 7 8 19 0 8 0 2 0 0 0 0 0 0 0 0 0 0 0 7 7 0 0 0 -5 0 0 11 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 3 12 0 5 8 0 0 0 0 0 0 0 0 17 0 -1 0 -1 0 0 7 0 -3 0 0 0 3 16 0 0 7 0 0 2 0 0 0 14 7 16 9 0 0 12 0 4 0 1 0 0 0 0 0 21 0 0 0 0 0 0 17 -2 0 0 5 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -677,10 +677,10 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -689,28 +689,28 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="M2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>517</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>232</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,40 +940,40 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="M2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="N2">
         <v>16</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>507</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1251,10 +1251,10 @@
         <v>64</v>
       </c>
       <c r="N2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
